--- a/Study 3/Shocks/GCAM/NDC_EI - 2090.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2090.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.02484113151409216</v>
+        <v>0.02484113151409217</v>
       </c>
     </row>
     <row r="3">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.08448019673582485</v>
+        <v>0.08448019673582487</v>
       </c>
     </row>
     <row r="5">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.0670302122057804</v>
+        <v>0.06703021220578041</v>
       </c>
     </row>
     <row r="7">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.06959350413550153</v>
+        <v>0.06959350413550154</v>
       </c>
     </row>
     <row r="9">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.004741720424830589</v>
+        <v>0.00474172042483059</v>
       </c>
     </row>
     <row r="11">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.08706452888437687</v>
+        <v>0.08706452888437688</v>
       </c>
     </row>
     <row r="13">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1754805009705548</v>
+        <v>0.1754805009705549</v>
       </c>
     </row>
     <row r="19">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.05812949613024174</v>
+        <v>0.05812949613024175</v>
       </c>
     </row>
     <row r="21">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.4561818125514149</v>
+        <v>0.456181812551415</v>
       </c>
     </row>
     <row r="23">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.005035014861208257</v>
+        <v>0.005035014861208258</v>
       </c>
     </row>
     <row r="31">
